--- a/artfynd/A 55441-2020.xlsx
+++ b/artfynd/A 55441-2020.xlsx
@@ -1550,10 +1550,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111224912</v>
+        <v>111224914</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1562,30 +1562,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>629588.3817680978</v>
+        <v>629509.0569008447</v>
       </c>
       <c r="R9" t="n">
-        <v>6842590.634464047</v>
+        <v>6842625.641442175</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>på kolbotten</t>
+          <t>intill tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111224925</v>
+        <v>111224904</v>
       </c>
       <c r="B10" t="n">
         <v>77268</v>
@@ -1720,10 +1720,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>629766.3496586322</v>
+        <v>629757.4944421005</v>
       </c>
       <c r="R10" t="n">
-        <v>6842916.484187849</v>
+        <v>6842760.382708686</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111224929</v>
+        <v>111224928</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>77267</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1814,25 +1814,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1846,10 +1846,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>629798.0943623377</v>
+        <v>629810.9370653455</v>
       </c>
       <c r="R11" t="n">
-        <v>6842844.073231429</v>
+        <v>6842869.252621178</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>intill tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111224909</v>
+        <v>111224921</v>
       </c>
       <c r="B12" t="n">
-        <v>77267</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1940,25 +1940,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>629666.4566313645</v>
+        <v>629669.1802035032</v>
       </c>
       <c r="R12" t="n">
-        <v>6842677.163770182</v>
+        <v>6842857.257064002</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>intill tall</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111224922</v>
+        <v>111224927</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2066,25 +2066,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>629641.789366745</v>
+        <v>629811.8869454104</v>
       </c>
       <c r="R13" t="n">
-        <v>6842889.942077836</v>
+        <v>6842869.28846997</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>intill tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111224907</v>
+        <v>111224920</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2192,25 +2192,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2224,10 +2224,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>629706.00831782</v>
+        <v>629659.6253031797</v>
       </c>
       <c r="R14" t="n">
-        <v>6842725.671866456</v>
+        <v>6842833.151942538</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111224903</v>
+        <v>111224908</v>
       </c>
       <c r="B15" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2322,21 +2322,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>629755.1554458451</v>
+        <v>629679.1734494077</v>
       </c>
       <c r="R15" t="n">
-        <v>6842759.344652543</v>
+        <v>6842680.492689494</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111224926</v>
+        <v>111224930</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>77267</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2444,25 +2444,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>629790.7569544882</v>
+        <v>629769.552200369</v>
       </c>
       <c r="R16" t="n">
-        <v>6842874.664732871</v>
+        <v>6842831.598658552</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>intill tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111224921</v>
+        <v>111224907</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2570,25 +2570,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2602,10 +2602,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>629669.1802035032</v>
+        <v>629706.00831782</v>
       </c>
       <c r="R17" t="n">
-        <v>6842857.257064002</v>
+        <v>6842725.671866456</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>intill tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2684,10 +2684,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111224908</v>
+        <v>111224919</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2696,25 +2696,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2728,10 +2728,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>629679.1734494077</v>
+        <v>629651.0533866235</v>
       </c>
       <c r="R18" t="n">
-        <v>6842680.492689494</v>
+        <v>6842782.963959652</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>intill tall</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111224911</v>
+        <v>111224905</v>
       </c>
       <c r="B19" t="n">
-        <v>8377</v>
+        <v>77267</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2822,25 +2822,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>6446</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2854,10 +2854,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>629652.7081419213</v>
+        <v>629719.505960985</v>
       </c>
       <c r="R19" t="n">
-        <v>6842663.347713103</v>
+        <v>6842746.127252747</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2902,11 +2902,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2923,7 +2918,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>tallåga</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2941,7 +2936,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111224916</v>
+        <v>111224909</v>
       </c>
       <c r="B20" t="n">
         <v>77267</v>
@@ -2985,10 +2980,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>629572.402757913</v>
+        <v>629666.4566313645</v>
       </c>
       <c r="R20" t="n">
-        <v>6842661.271683474</v>
+        <v>6842677.163770182</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3067,10 +3062,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111224923</v>
+        <v>111224913</v>
       </c>
       <c r="B21" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3079,25 +3074,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3111,10 +3106,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>629639.6291653789</v>
+        <v>629558.8754930747</v>
       </c>
       <c r="R21" t="n">
-        <v>6842884.161947324</v>
+        <v>6842628.942205559</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3175,7 +3170,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>intill tall</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3193,10 +3188,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111224927</v>
+        <v>111224923</v>
       </c>
       <c r="B22" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3209,21 +3204,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3237,10 +3232,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>629811.8869454104</v>
+        <v>629639.6291653789</v>
       </c>
       <c r="R22" t="n">
-        <v>6842869.28846997</v>
+        <v>6842884.161947324</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3319,10 +3314,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111224904</v>
+        <v>111224929</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3331,25 +3326,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3363,10 +3358,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>629757.4944421005</v>
+        <v>629798.0943623377</v>
       </c>
       <c r="R23" t="n">
-        <v>6842760.382708686</v>
+        <v>6842844.073231429</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3427,7 +3422,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>intill tall</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3445,10 +3440,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111224906</v>
+        <v>111224903</v>
       </c>
       <c r="B24" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3461,21 +3456,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3489,10 +3484,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>629719.5774986777</v>
+        <v>629755.1554458451</v>
       </c>
       <c r="R24" t="n">
-        <v>6842744.23029884</v>
+        <v>6842759.344652543</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3571,10 +3566,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111224928</v>
+        <v>111224915</v>
       </c>
       <c r="B25" t="n">
-        <v>77267</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3583,25 +3578,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3615,10 +3610,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>629810.9370653455</v>
+        <v>629524.6095149621</v>
       </c>
       <c r="R25" t="n">
-        <v>6842869.252621178</v>
+        <v>6842654.722516628</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3679,7 +3674,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>intill tall</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3697,10 +3692,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111224905</v>
+        <v>111224917</v>
       </c>
       <c r="B26" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3713,21 +3708,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3741,10 +3736,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>629719.505960985</v>
+        <v>629572.7348137855</v>
       </c>
       <c r="R26" t="n">
-        <v>6842746.127252747</v>
+        <v>6842665.08357082</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3823,10 +3818,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111224917</v>
+        <v>111224912</v>
       </c>
       <c r="B27" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3835,30 +3830,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>47</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3867,10 +3862,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>629572.7348137855</v>
+        <v>629588.3817680978</v>
       </c>
       <c r="R27" t="n">
-        <v>6842665.08357082</v>
+        <v>6842590.634464047</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3931,7 +3926,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>på kolbotten</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3949,10 +3944,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111224920</v>
+        <v>111224906</v>
       </c>
       <c r="B28" t="n">
-        <v>89369</v>
+        <v>77268</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3961,25 +3956,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5447</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3993,10 +3988,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>629659.6253031797</v>
+        <v>629719.5774986777</v>
       </c>
       <c r="R28" t="n">
-        <v>6842833.151942538</v>
+        <v>6842744.23029884</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4057,7 +4052,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4075,10 +4070,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111224910</v>
+        <v>111224916</v>
       </c>
       <c r="B29" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4091,21 +4086,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -4119,10 +4114,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>629666.4566313645</v>
+        <v>629572.402757913</v>
       </c>
       <c r="R29" t="n">
-        <v>6842677.163770182</v>
+        <v>6842661.271683474</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4201,7 +4196,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111224915</v>
+        <v>111224926</v>
       </c>
       <c r="B30" t="n">
         <v>90666</v>
@@ -4245,10 +4240,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>629524.6095149621</v>
+        <v>629790.7569544882</v>
       </c>
       <c r="R30" t="n">
-        <v>6842654.722516628</v>
+        <v>6842874.664732871</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4327,7 +4322,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111224919</v>
+        <v>111224922</v>
       </c>
       <c r="B31" t="n">
         <v>90666</v>
@@ -4371,10 +4366,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>629651.0533866235</v>
+        <v>629641.789366745</v>
       </c>
       <c r="R31" t="n">
-        <v>6842782.963959652</v>
+        <v>6842889.942077836</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4453,10 +4448,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111224918</v>
+        <v>111224925</v>
       </c>
       <c r="B32" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4469,21 +4464,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4497,10 +4492,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>629649.4038267919</v>
+        <v>629766.3496586322</v>
       </c>
       <c r="R32" t="n">
-        <v>6842776.253080683</v>
+        <v>6842916.484187849</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4579,10 +4574,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111224914</v>
+        <v>111224918</v>
       </c>
       <c r="B33" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4591,25 +4586,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4623,10 +4618,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>629509.0569008447</v>
+        <v>629649.4038267919</v>
       </c>
       <c r="R33" t="n">
-        <v>6842625.641442175</v>
+        <v>6842776.253080683</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4687,7 +4682,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>intill tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4705,10 +4700,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111224913</v>
+        <v>111224911</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>8377</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4721,21 +4716,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>106545</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4749,10 +4744,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>629558.8754930747</v>
+        <v>629652.7081419213</v>
       </c>
       <c r="R34" t="n">
-        <v>6842628.942205559</v>
+        <v>6842663.347713103</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4797,6 +4792,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>intill tall</t>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111224930</v>
+        <v>111224910</v>
       </c>
       <c r="B35" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4847,21 +4847,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>629769.552200369</v>
+        <v>629666.4566313645</v>
       </c>
       <c r="R35" t="n">
-        <v>6842831.598658552</v>
+        <v>6842677.163770182</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
